--- a/biology/Médecine/Étienne_Sorrel/Étienne_Sorrel.xlsx
+++ b/biology/Médecine/Étienne_Sorrel/Étienne_Sorrel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Sorrel</t>
+          <t>Étienne_Sorrel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Sorrel, né le 25 février 1882 à Moulins (Allier) et mort le 2 mai 1965, est un chirurgien orthopédiste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Sorrel</t>
+          <t>Étienne_Sorrel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jeunesse et formation
-Carrière hospitalière
-Il est nommé chirurgien des Hôpitaux de Paris en 1919.
-Charges et distinctions
-Membre de l'Académie nationale de chirurgie (président en 1950)</t>
+          <t>Carrière hospitalière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nommé chirurgien des Hôpitaux de Paris en 1919.
+</t>
         </is>
       </c>
     </row>
@@ -527,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Sorrel</t>
+          <t>Étienne_Sorrel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +557,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Charges et distinctions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Membre de l'Académie nationale de chirurgie (président en 1950)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Étienne_Sorrel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tienne_Sorrel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
